--- a/data_dictionaries/pt-BR/Belvo_Data_Dictionary_pt-BR.xlsx
+++ b/data_dictionaries/pt-BR/Belvo_Data_Dictionary_pt-BR.xlsx
@@ -562,8 +562,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>O nome da instituição, conforme designado pela Belvo.
-Consulte nosso artigo &lt;a href="https://developers.belvo.com/docs/institution" target="_blank"&gt;Instituições&lt;/a&gt; no DevPortal para uma lista detalhada de nomes de instituições.</t>
+          <t>O nome da instituição, conforme designado pela Belvo.</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -12085,8 +12084,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>O nome da instituição, conforme designado pela Belvo.
-Consulte nosso artigo &lt;a href="https://developers.belvo.com/docs/institution" target="_blank"&gt;Instituições&lt;/a&gt; no DevPortal para uma lista detalhada de nomes de instituições.</t>
+          <t>O nome da instituição, conforme designado pela Belvo.</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -30222,7 +30220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30638,33 +30636,29 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>sender_id</t>
+          <t>tax_details</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>O ID fiscal do remetente da fatura</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>AAA111111AA11</t>
-        </is>
-      </c>
+          <t>Informações gerais sobre os impostos da fatura.</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
@@ -30673,33 +30667,37 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>sender_name</t>
+          <t>tax_details.total_tax_retained</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>O nome do remetente da fatura.</t>
+          <t>Valor total dos impostos retidos.</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>ACME CORP</t>
+          <t>194.27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr"/>
@@ -30708,10 +30706,512 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
+          <t>tax_details.total_tax_transferred</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Valor total dos impostos transferidos.</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>150.4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.retained_taxes</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Lista de impostos retidos.</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.retained_taxes[].tax</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>O tipo de imposto retido (por exemplo, ISR, IVA ou IEPS).</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>ISR</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.retained_taxes[].tax_percentage</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>A porcentagem de imposto retido.</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.retained_taxes[].pre_tax_amount</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>O valor antes dos impostos.</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.retained_taxes[].tax_amount</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>O valor do imposto retido.</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.transferred_taxes</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Lista de impostos transferidos.</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.transferred_taxes[].tax</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>O tipo de imposto transferido (por exemplo, ISR, IVA ou IEPS).</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>IVA</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.transferred_taxes[].tax_percentage</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>A porcentagem de imposto transferido.</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.transferred_taxes[].pre_tax_amount</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>O valor antes dos impostos.</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.transferred_taxes[].tax_amount</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>O valor do imposto transferido.</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>150.4</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>sender_id</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>O ID fiscal do remetente da fatura</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>AAA111111AA11</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>sender_fiscal_regime</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>O regime tributário do remetente, conforme definido pela pessoa jurídica no país.</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>sender_name</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>O nome do remetente da fatura.</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>ACME CORP</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
           <t>sender_tax_fraud_status</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Indica se o remetente está ou não na lista de fraude fiscal do SAT por ter enviado dados incorretos, ter pagamentos pendentes ou ter realizado negócios que violam os regulamentos da instituição fiscal.&lt;br&gt;&lt;br&gt;
 O SAT atualiza a lista de fraude fiscal a cada três meses. &lt;br&gt;&lt;br&gt;
@@ -30734,107 +31234,177 @@
 O receptor ou remetente não é encontrado na lista (ou seja, está em conformidade com os regulamentos da instituição fiscal).</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>NO_TAX_FRAUD_STATUS</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>receiver_id</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>O ID fiscal do destinatário da fatura.</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>BBB222222BB22</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>receiver_postal_code</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>O código postal do destinatário.</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>11560</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>receiver_fiscal_regime</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>O regime tributário do recebedor, conforme definido pela pessoa jurídica no país.</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>receiver_name</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>O nome do destinatário da fatura.</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>BELVO CORP</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>receiver_tax_fraud_status</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>Indica se o destinatário está ou não na lista de fraude fiscal do SAT por ter enviado dados incorretos, ter pagamentos pendentes ou ter realizado negócios que violam os regulamentos da instituição fiscal.&lt;br&gt;&lt;br&gt;
 O SAT atualiza a lista de fraude fiscal a cada três meses. &lt;br&gt;&lt;br&gt;
@@ -30857,912 +31427,336 @@
 O destinatário ou remetente não é encontrado na lista (ou seja, está em conformidade com os regulamentos da instituição fiscal).</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>NO_TAX_FRAUD_STATUS</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>cancelation_status</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Se a fatura for cancelada, este campo indica o status do cancelamento.</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>cancelation_update_date</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>A data do cancelamento da fatura, no formato `YYYY-MM-DD`.</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>2019-12-02</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>certification_date</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>A data da certificação fiscal, no formato `YYYY-MM-DD`.</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>2019-12-01</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>certification_authority</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>O ID fiscal do provedor de certificação.</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>CCC333333CC33</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>payment_type</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>O código do tipo de pagamento usado para esta fatura, conforme definido pela entidade legal do país.
 - 🇲🇽 México &lt;a href="https://developers.belvo.com/docs/sat-catalogs#payment-type" target="_blank"&gt;Artigo de referência do catálogo SAT&lt;/a&gt;</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>payment_type_description</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>*Este campo foi descontinuado. Para mais informações sobre a Belvo e descontinuação, consulte nossa explicação sobre Campos descontinuados.*</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>payment_method</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>O código do método de pagamento usado para esta fatura, conforme definido pela entidade legal do país.
 - 🇲🇽 México &lt;a href="https://developers.belvo.com/docs/sat-catalogs#payment-method" target="_blank"&gt;artigo de referência do catálogo SAT&lt;/a&gt;. Para o México, retornamos `PUE`, `PPD` ou `null`.</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>PUE</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
         <is>
           <t>PUE, PPD, None</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="I39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>payment_method_description</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>*Este campo foi descontinuado. Para mais informações sobre a Belvo e descontinuação, consulte nossa explicação sobre Campos descontinuados.*
 *A descrição do método de pagamento utilizado para esta fatura.*</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>usage</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>O código de uso da fatura, conforme definido pela entidade legal do país.
 - 🇲🇽 México &lt;a href="https://developers.belvo.com/docs/sat-catalogs#usage" target="_blank"&gt;artigo de referência do catálogo SAT&lt;/a&gt;</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>P01</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>A versão CFDI da fatura.</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>place_of_issue</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>O código postal de onde a fatura foi emitida.</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>01165</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>Uma lista de descrições para cada item (produto comprado ou serviço prestado) na fatura.</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>array</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].description</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>A descrição do item da fatura (uma fatura pode ter um ou mais itens).</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>December 2019 accounting fees</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].product_identification</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>O código de identificação do produto ou serviço, conforme definido pela entidade legal no país.\n- \U0001F1F2\U0001F1FD &lt;a href="http://200.57.3.89/Pys/catPyS.aspx" target="_blank"&gt;México&lt;/a&gt;.</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>84101600</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].quantity</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>A quantidade deste item da fatura.</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].unit_code</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>A unidade de medida, conforme definida pela entidade legal no país. \n- \U0001F1F2\U0001F1FD México &lt;a href="https://developers.belvo.com/docs/sat-catalogs#unit-code" target="_blank"&gt;referência do catálogo SAT&lt;/a&gt;.</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>E48</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].unit_description</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>A descrição do item, conforme definido pela entidade legal no país.\n- \U0001F1F2\U0001F1FD México &lt;a href="https://developers.belvo.com/docs/sat-catalogs#unit-code" target="_blank"&gt;referência do catálogo SAT&lt;/a&gt;.</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>Unidad de servicio</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].unit_amount</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>O preço de um único item.</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].tax_type</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>O tipo de imposto do item.</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].pre_tax_amount</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>O preço total deste item antes da aplicação de impostos é (`quantity` x `unit_amount`).</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].tax_percentage</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>A porcentagem de imposto a ser aplicada.</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].tax_amount</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>O valor do imposto para este item da fatura (`pre_tax_amount` x `tax_percentage`).</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].total_amount</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>O preço total para este item da fatura (`pre_tax_amount` + `tax_amount`).</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>464</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].retained_taxes</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>O imposto retido no item da fatura.</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>array</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].retained_taxes[].collected_at</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>O carimbo de data/hora ISO-8601 quando o ponto de dados foi coletado.</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>2022-02-09T08:45:50.406032Z</t>
-        </is>
-      </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>date-time</t>
-        </is>
-      </c>
+      <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr">
         <is>
           <t>No</t>
@@ -31770,7 +31764,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr"/>
@@ -31779,15 +31773,19 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>invoice_details[].retained_taxes[].tax_type</t>
+          <t>version</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>O tipo de imposto do item.</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr"/>
+          <t>A versão CFDI da fatura.</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
           <t>string</t>
@@ -31810,17 +31808,17 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>invoice_details[].retained_taxes[].tax</t>
+          <t>place_of_issue</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>O tipo de imposto retido (por exemplo, ISR, IVA ou IEPS).</t>
+          <t>O código postal de onde a fatura foi emitida.</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>ISR</t>
+          <t>01165</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -31831,7 +31829,7 @@
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -31845,29 +31843,21 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>invoice_details[].retained_taxes[].tax_percentage</t>
+          <t>invoice_details</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>A porcentagem de imposto retido.</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>Uma lista de descrições para cada item (produto comprado ou serviço prestado) na fatura.</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr"/>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -31875,7 +31865,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr"/>
@@ -31884,37 +31874,37 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>invoice_details[].retained_taxes[].retained_tax_amount</t>
+          <t>invoice_details[].collected_at</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>O valor do imposto retido.</t>
+          <t>O carimbo de data/hora ISO-8601 quando o ponto de dados foi coletado.</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>209.79</t>
+          <t>2022-02-09T08:45:50.406032Z</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>date-time</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr"/>
@@ -31923,17 +31913,17 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>invoice_details[].collected_at</t>
+          <t>invoice_details[].description</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>O carimbo de data/hora ISO-8601 quando o ponto de dados foi coletado.</t>
+          <t>A descrição do item da fatura (uma fatura pode ter um ou mais itens).</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2022-02-09T08:45:50.406032Z</t>
+          <t>December 2019 accounting fees</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -31941,19 +31931,15 @@
           <t>string</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>date-time</t>
-        </is>
-      </c>
+      <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
@@ -31962,10 +31948,746 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
+          <t>invoice_details[].product_identification</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>O código de identificação do produto ou serviço, conforme definido pela entidade legal no país.\n- \U0001F1F2\U0001F1FD &lt;a href="http://200.57.3.89/Pys/catPyS.aspx" target="_blank"&gt;México&lt;/a&gt;.</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>84101600</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].quantity</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>A quantidade deste item da fatura.</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].unit_code</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>A unidade de medida, conforme definida pela entidade legal no país. \n- \U0001F1F2\U0001F1FD México &lt;a href="https://developers.belvo.com/docs/sat-catalogs#unit-code" target="_blank"&gt;referência do catálogo SAT&lt;/a&gt;.</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>E48</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].unit_description</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>A descrição do item, conforme definido pela entidade legal no país.\n- \U0001F1F2\U0001F1FD México &lt;a href="https://developers.belvo.com/docs/sat-catalogs#unit-code" target="_blank"&gt;referência do catálogo SAT&lt;/a&gt;.</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Unidad de servicio</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].unit_amount</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>O preço de um único item.</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].tax_type</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>O tipo de imposto do item.</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].pre_tax_amount</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>O preço total deste item antes da aplicação de impostos é (`quantity` x `unit_amount`).</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].tax_percentage</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>A porcentagem de imposto a ser aplicada.</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].tax_amount</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>O valor do imposto para este item da fatura (`pre_tax_amount` x `tax_percentage`).</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].total_amount</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>O preço total para este item da fatura (`pre_tax_amount` + `tax_amount`).</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].retained_taxes</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>O imposto retido no item da fatura.</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].retained_taxes[].collected_at</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>O carimbo de data/hora ISO-8601 quando o ponto de dados foi coletado.</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>2022-02-09T08:45:50.406032Z</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>date-time</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].retained_taxes[].tax</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>O tipo de imposto retido (por exemplo, ISR, IVA ou IEPS).</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>ISR</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].retained_taxes[].tax_percentage</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>A porcentagem de imposto retido.</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].retained_taxes[].retained_tax_amount</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>O valor do imposto retido.</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>209.79</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].transferred_taxes</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Os impostos transferidos relacionados à fatura.</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].transferred_taxes[].collected_at</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>O carimbo de data/hora ISO-8601 quando o ponto de dados foi coletado.</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>2022-02-09T08:45:50.406032Z</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>date-time</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].transferred_taxes[].tax</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>O tipo de imposto transferido (por exemplo, ISR, IVA ou IEPS).</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>IVA</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].transferred_taxes[].tax_percentage</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>A porcentagem de imposto transferido.</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].transferred_taxes[].transferred_tax_amount</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>O valor do imposto transferido.</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>209.79</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
           <t>currency</t>
         </is>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>A moeda da fatura. Por exemplo:
 - 🇧🇷 BRL (Real Brasileiro)
@@ -31974,338 +32696,439 @@
 - 🇺🇸 USD (Dólar dos Estados Unidos)</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t>MXN</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="2" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>subtotal_amount</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>O valor antes dos impostos desta fatura (soma do `pre_tax_amount` de cada item).</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>400</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="D68" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>exchange_rate</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>A taxa de câmbio utilizada nesta fatura para a moeda.</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>0.052</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr">
+      <c r="D69" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>tax_amount</t>
         </is>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>O valor do imposto para esta fatura (soma do `tax_amount` de cada item).</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr">
+      <c r="D70" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>discount_amount</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>O valor total descontado nesta fatura.</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr">
+      <c r="D71" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>total_amount</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>O valor total da fatura (`subtotal_amount` + `tax_amount` - `discount_amount`)</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>454</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr">
+      <c r="D72" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E72" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>related_invoices</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Uma lista de faturas relacionadas.</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr"/>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr"/>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr"/>
+      <c r="I73" s="2" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>related_invoices[].relationship_type</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>O tipo de relação entre esta fatura e a fatura relacionada, conforme definido pela entidade legal no país. Para mais informações, consulte nosso &lt;a href="https://developers.belvo.com/docs/sat-catalogs#related-invoices" target="_blank"&gt;artigo de referência do catálogo SAT&lt;/a&gt;.</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr"/>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr"/>
+      <c r="I74" s="2" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>related_invoices[].related_invoice_identification</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>O ID SAT da nota fiscal relacionada.</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>INV-123456</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>payments</t>
         </is>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Uma lista detalhando todos os pagamentos de faturas.</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr"/>
-      <c r="D53" s="2" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="inlineStr"/>
+      <c r="I76" s="2" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>payments[].date</t>
         </is>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Carimbo de data/hora ISO-8601 quando o pagamento foi realizado.</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>2020-03-17T12:00:00.000Z</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>date-time</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr"/>
+      <c r="I77" s="2" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>payments[].payment_type</t>
         </is>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Código do tipo de pagamento usado para esta fatura, conforme definido pela entidade legal do país.
 - 🇲🇽 México &lt;a href="https://developers.belvo.com/docs/sat-catalogs#payment-type" target="_blank"&gt;artigo de referência do catálogo SAT&lt;/a&gt;</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>03</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr"/>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr"/>
+      <c r="I78" s="2" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
         <is>
           <t>payments[].currency</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>A moeda do pagamento. Por exemplo:
 - 🇧🇷 BRL (Real Brasileiro)
@@ -32314,387 +33137,387 @@
 Por favor, note que outras moedas além das listadas acima podem ser retornadas.</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr"/>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="inlineStr"/>
+      <c r="I79" s="2" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>payments[].exchange_rate</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>A taxa de câmbio de `currency` para MXN no momento em que o pagamento foi realizado.</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>3.75</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
         <is>
           <t>payments[].amount</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>O valor da fatura, na moeda da fatura original.</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>8000.5</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr">
+      <c r="D81" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E58" s="2" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>payments[].operation_number</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>O identificador interno da instituição fiscal para a operação.</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>831840</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr"/>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>payments[].beneficiary_rfc</t>
         </is>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>O ID fiscal do beneficiário do pagamento.</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>BNM840515VB1</t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr"/>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>payments[].beneficiary_account_number</t>
         </is>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>O número da conta bancária do beneficiário do pagamento.</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>12343453245633</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr"/>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="inlineStr"/>
+      <c r="I84" s="2" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>payments[].payer_rfc</t>
         </is>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>O ID fiscal do emissor do pagamento.</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>BKJM840515VB1</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr"/>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="inlineStr"/>
+      <c r="I85" s="2" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>payments[].payer_account_number</t>
         </is>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>O número da conta bancária do emissor do pagamento.</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>13343663245699</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr"/>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr"/>
+      <c r="I86" s="2" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>payments[].payer_bank_name</t>
         </is>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B87" s="2" t="inlineStr">
         <is>
           <t>A instituição bancária que foi utilizada pelo emissor do pagamento.</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C87" s="2" t="inlineStr">
         <is>
           <t>CITI BANAMEX</t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr"/>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr"/>
+      <c r="I87" s="2" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents</t>
         </is>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Uma lista de todas as faturas diferidas relacionadas afetadas pelo pagamento.</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr"/>
-      <c r="D65" s="2" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr"/>
+      <c r="D88" s="2" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="E88" s="2" t="inlineStr"/>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr"/>
+      <c r="I88" s="2" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents[].invoice_identification</t>
         </is>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>O ID exclusivo da instituição fiscal para a fatura diferida relacionada.</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>7EE015F3-6311-11EA-B02A-00155D014007</t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H66" s="2" t="inlineStr"/>
-      <c r="I66" s="2" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr"/>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr"/>
+      <c r="I89" s="2" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents[].currency</t>
         </is>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>A moeda da fatura relacionada. Por exemplo:
 - 🇧🇷 BRL (Real Brasileiro)
@@ -32703,564 +33526,564 @@
 Por favor, note que outras moedas além das listadas acima podem ser retornadas.</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>MXN</t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="inlineStr">
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr"/>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr"/>
+      <c r="I90" s="2" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents[].payment_method</t>
         </is>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B91" s="2" t="inlineStr">
         <is>
           <t>O método de pagamento da fatura relacionada.</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C91" s="2" t="inlineStr">
         <is>
           <t>PPD</t>
         </is>
       </c>
-      <c r="D68" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr"/>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr"/>
+      <c r="I91" s="2" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents[].partiality_number</t>
         </is>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>O número da parcela de pagamento.</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr">
+      <c r="D92" s="2" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>int32</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr"/>
+      <c r="I92" s="2" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents[].previous_balance</t>
         </is>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>O valor da fatura antes do pagamento.</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>18877.84</t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr">
+      <c r="D93" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents[].amount_paid</t>
         </is>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>O valor pago nesta parcela.</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>8000</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr">
+      <c r="D94" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E71" s="2" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr"/>
+      <c r="I94" s="2" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents[].outstanding_balance</t>
         </is>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>O valor restante a ser pago.</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>10877.84</t>
         </is>
       </c>
-      <c r="D72" s="2" t="inlineStr">
+      <c r="D95" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E72" s="2" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr"/>
+      <c r="I95" s="2" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>Detalhes sobre o pagamento da folha de pagamento. Aplicável apenas para faturas de folha de pagamento.</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr"/>
-      <c r="D73" s="2" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr"/>
+      <c r="D96" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="E73" s="2" t="inlineStr"/>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H73" s="2" t="inlineStr"/>
-      <c r="I73" s="2" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr"/>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr"/>
+      <c r="I96" s="2" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
         <is>
           <t>payroll.days</t>
         </is>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>O número de dias cobertos pelo pagamento.</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="D74" s="2" t="inlineStr">
+      <c r="D97" s="2" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="E74" s="2" t="inlineStr">
+      <c r="E97" s="2" t="inlineStr">
         <is>
           <t>int32</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H74" s="2" t="inlineStr"/>
-      <c r="I74" s="2" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="inlineStr">
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr"/>
+      <c r="I97" s="2" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>payroll.type</t>
         </is>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B98" s="2" t="inlineStr">
         <is>
           <t>O tipo de folha de pagamento, conforme definido pela entidade legal do país.
 - 🇲🇽 México &lt;a href="https://developers.belvo.com/docs/sat-catalogs#payroll-type" target="_blank"&gt;artigo de referência do catálogo SAT&lt;/a&gt;</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C98" s="2" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="D75" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H75" s="2" t="inlineStr"/>
-      <c r="I75" s="2" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr">
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr"/>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr"/>
+      <c r="I98" s="2" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
         <is>
           <t>payroll.amount</t>
         </is>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>O valor total do pagamento da folha de pagamento.</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>20400.1</t>
         </is>
       </c>
-      <c r="D76" s="2" t="inlineStr">
+      <c r="D99" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H76" s="2" t="inlineStr"/>
-      <c r="I76" s="2" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="inlineStr">
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr"/>
+      <c r="I99" s="2" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
         <is>
           <t>payroll.version</t>
         </is>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>A versão do objeto de folha de pagamento.</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>1.2</t>
         </is>
       </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E77" s="2" t="inlineStr"/>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H77" s="2" t="inlineStr"/>
-      <c r="I77" s="2" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="inlineStr">
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr"/>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr"/>
+      <c r="I100" s="2" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>payroll.date_from</t>
         </is>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>A data de início do período de pagamento, no formato `YYYY-MM-DD`.</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>2018-07-01</t>
         </is>
       </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H78" s="2" t="inlineStr"/>
-      <c r="I78" s="2" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="inlineStr">
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H101" s="2" t="inlineStr"/>
+      <c r="I101" s="2" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
         <is>
           <t>payroll.date_to</t>
         </is>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>A data de término do período de pagamento, no formato `YYYY-MM-DD`.</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>2018-07-31</t>
         </is>
       </c>
-      <c r="D79" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H79" s="2" t="inlineStr"/>
-      <c r="I79" s="2" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="inlineStr">
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H102" s="2" t="inlineStr"/>
+      <c r="I102" s="2" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>payroll.collected_at</t>
         </is>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>O carimbo de data/hora ISO-8601 quando o ponto de dados foi coletado.</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
         <is>
           <t>2022-02-09T08:45:50.406032Z</t>
         </is>
       </c>
-      <c r="D80" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
         <is>
           <t>date-time</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H80" s="2" t="inlineStr"/>
-      <c r="I80" s="2" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="inlineStr">
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H103" s="2" t="inlineStr"/>
+      <c r="I103" s="2" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
         <is>
           <t>payroll.payment_date</t>
         </is>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>A data de pagamento, no formato `YYYY-MM-DD`.</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>2018-07-16</t>
         </is>
       </c>
-      <c r="D81" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H81" s="2" t="inlineStr"/>
-      <c r="I81" s="2" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr">
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr"/>
+      <c r="I104" s="2" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
         <is>
           <t>payroll.periodicity</t>
         </is>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>Com que frequência o pagamento da folha de pagamento é realizado.
 Para o SAT do México, retornamos um dos seguintes valores:
@@ -33277,492 +34100,527 @@
   - `OTHER_PERIODICITY`</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>MONTHLY</t>
         </is>
       </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E82" s="2" t="inlineStr"/>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr"/>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
         <is>
           <t>DAILY, WEEKLY, TENTH_DAY, FOURTEENTH_DAY, FIFTEENTH_DAY, MONTHLY, BIMONTHLY, PER_TASK, COMMISSION, ONE_OFF, OTHER_PERIODICITY, null</t>
         </is>
       </c>
-      <c r="I82" s="2" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
+      <c r="I105" s="2" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
         <is>
           <t>payroll.earnings_breakdown</t>
         </is>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>Uma análise detalhada dos ganhos para o pagamento da folha de pagamento.</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr"/>
-      <c r="D83" s="2" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr"/>
+      <c r="D106" s="2" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="E83" s="2" t="inlineStr"/>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H83" s="2" t="inlineStr"/>
-      <c r="I83" s="2" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr"/>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H106" s="2" t="inlineStr"/>
+      <c r="I106" s="2" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
         <is>
           <t>payroll.earnings_breakdown[].type</t>
         </is>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>O tipo de renda. Para uma lista completa de valores possíveis, consulte a &lt;a href="https://developers.belvo.com/docs/sat-catalogs#payroll-earnings-breakdown-type" target="_blank"&gt;tabela de tipos de detalhamento de ganhos da folha de pagamento&lt;/a&gt;.</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>CHRISTMAS_BONUS</t>
         </is>
       </c>
-      <c r="D84" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E84" s="2" t="inlineStr"/>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H84" s="2" t="inlineStr"/>
-      <c r="I84" s="2" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr">
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr"/>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H107" s="2" t="inlineStr"/>
+      <c r="I107" s="2" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
         <is>
           <t>payroll.earnings_breakdown[].taxable_amount</t>
         </is>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>O valor da renda que é tributável.</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
         <is>
           <t>1505</t>
         </is>
       </c>
-      <c r="D85" s="2" t="inlineStr">
+      <c r="D108" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E85" s="2" t="inlineStr">
+      <c r="E108" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H85" s="2" t="inlineStr"/>
-      <c r="I85" s="2" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="inlineStr">
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H108" s="2" t="inlineStr"/>
+      <c r="I108" s="2" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
         <is>
           <t>payroll.earnings_breakdown[].vat_free_amount</t>
         </is>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>O valor da receita que não está sujeito ao IVA.</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D86" s="2" t="inlineStr">
+      <c r="D109" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="E109" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H86" s="2" t="inlineStr"/>
-      <c r="I86" s="2" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="inlineStr">
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H109" s="2" t="inlineStr"/>
+      <c r="I109" s="2" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
         <is>
           <t>payroll.tax_deductions</t>
         </is>
       </c>
-      <c r="B87" s="2" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>Uma análise das deduções fiscais no pagamento da folha de pagamento.</t>
         </is>
       </c>
-      <c r="C87" s="2" t="inlineStr"/>
-      <c r="D87" s="2" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr"/>
+      <c r="D110" s="2" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="E87" s="2" t="inlineStr"/>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H87" s="2" t="inlineStr"/>
-      <c r="I87" s="2" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="inlineStr">
+      <c r="E110" s="2" t="inlineStr"/>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H110" s="2" t="inlineStr"/>
+      <c r="I110" s="2" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
         <is>
           <t>payroll.tax_deductions[].type</t>
         </is>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>O tipo de dedução fiscal. Para uma lista completa de valores possíveis, consulte a &lt;a href="https://developers.belvo.com/docs/sat-catalogs#payroll-tax-deductions-type" target="_blank"&gt;tabela de tipos de deduções fiscais de folha de pagamento&lt;/a&gt;.</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>UNION_FEES</t>
         </is>
       </c>
-      <c r="D88" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E88" s="2" t="inlineStr"/>
-      <c r="F88" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G88" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H88" s="2" t="inlineStr"/>
-      <c r="I88" s="2" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="inlineStr">
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr"/>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H111" s="2" t="inlineStr"/>
+      <c r="I111" s="2" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
         <is>
           <t>payroll.tax_deductions[].amount</t>
         </is>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>O valor da dedução fiscal.</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>1505</t>
         </is>
       </c>
-      <c r="D89" s="2" t="inlineStr">
+      <c r="D112" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E89" s="2" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H89" s="2" t="inlineStr"/>
-      <c r="I89" s="2" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H112" s="2" t="inlineStr"/>
+      <c r="I112" s="2" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
         <is>
           <t>payroll.other_payments</t>
         </is>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B113" s="2" t="inlineStr">
         <is>
           <t>Uma análise detalhada de outros pagamentos para a folha de pagamento.</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr"/>
-      <c r="D90" s="2" t="inlineStr">
+      <c r="C113" s="2" t="inlineStr"/>
+      <c r="D113" s="2" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="E90" s="2" t="inlineStr"/>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H90" s="2" t="inlineStr"/>
-      <c r="I90" s="2" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="inlineStr">
+      <c r="E113" s="2" t="inlineStr"/>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H113" s="2" t="inlineStr"/>
+      <c r="I113" s="2" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
         <is>
           <t>payroll.other_payments[].type</t>
         </is>
       </c>
-      <c r="B91" s="2" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>O tipo de outro pagamento. Para uma lista completa de valores possíveis, consulte a &lt;a href="https://developers.belvo.com/docs/sat-catalogs#payroll-other-payments-type" target="_blank"&gt;tabela de tipos de outros pagamentos de folha de pagamento&lt;/a&gt;.</t>
         </is>
       </c>
-      <c r="C91" s="2" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr">
         <is>
           <t>EMPLOYMENT_SUBSIDY</t>
         </is>
       </c>
-      <c r="D91" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="inlineStr"/>
-      <c r="F91" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G91" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H91" s="2" t="inlineStr"/>
-      <c r="I91" s="2" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="inlineStr">
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr"/>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H114" s="2" t="inlineStr"/>
+      <c r="I114" s="2" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>payroll.other_payments[].amount</t>
         </is>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>O valor do outro pagamento.</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>1505</t>
         </is>
       </c>
-      <c r="D92" s="2" t="inlineStr">
+      <c r="D115" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H92" s="2" t="inlineStr"/>
-      <c r="I92" s="2" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="inlineStr">
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H115" s="2" t="inlineStr"/>
+      <c r="I115" s="2" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>folio</t>
         </is>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>O número de controle interno que o contribuinte atribui à nota fiscal.</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr"/>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H93" s="2" t="inlineStr"/>
-      <c r="I93" s="2" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="inlineStr">
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr"/>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H116" s="2" t="inlineStr"/>
+      <c r="I116" s="2" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>export_type</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>O tipo de exportação da fatura, conforme definido pela entidade legal no país. Para mais informações, consulte nosso &lt;a href="https://developers.belvo.com/docs/sat-catalogs#export-type" target="_blank"&gt;artigo de referência do catálogo SAT&lt;/a&gt;.</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr"/>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H117" s="2" t="inlineStr"/>
+      <c r="I117" s="2" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
         <is>
           <t>xml</t>
         </is>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>XML do documento da fatura.</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr"/>
-      <c r="D94" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E94" s="2" t="inlineStr"/>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H94" s="2" t="inlineStr"/>
-      <c r="I94" s="2" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr"/>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr"/>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H118" s="2" t="inlineStr"/>
+      <c r="I118" s="2" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Objeto contendo informações sobre quaisquer avisos relacionados a esta fatura.</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr"/>
-      <c r="D95" s="2" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr"/>
+      <c r="D119" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="E95" s="2" t="inlineStr"/>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H95" s="2" t="inlineStr"/>
-      <c r="I95" s="2" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr"/>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H119" s="2" t="inlineStr"/>
+      <c r="I119" s="2" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
         <is>
           <t>warnings.code</t>
         </is>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>O código de aviso. Pode ser um dos seguintes:
   - `sat_xml_limit_reached`
@@ -33770,37 +34628,37 @@
   - `null`</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>sat_xml_limit_reached</t>
         </is>
       </c>
-      <c r="D96" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E96" s="2" t="inlineStr"/>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H96" s="2" t="inlineStr"/>
-      <c r="I96" s="2" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="inlineStr">
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr"/>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H120" s="2" t="inlineStr"/>
+      <c r="I120" s="2" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
         <is>
           <t>warnings.message</t>
         </is>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>A descrição do aviso.
 A mensagem dependerá do código de aviso:
@@ -33810,7 +34668,7 @@
 O download dos detalhes das notas fiscais não está disponível. O portal do SAT retornou um erro 503.</t>
         </is>
       </c>
-      <c r="C97" s="2" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The daily limit for XML downloads set by SAT was reached so this invoice
 might be missing data. Please check https://tinyurl.com/yydzhy5d for more
@@ -33818,88 +34676,88 @@
 </t>
         </is>
       </c>
-      <c r="D97" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E97" s="2" t="inlineStr"/>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H97" s="2" t="inlineStr"/>
-      <c r="I97" s="2" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="inlineStr">
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr"/>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H121" s="2" t="inlineStr"/>
+      <c r="I121" s="2" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
         <is>
           <t>sender_blacklist_status</t>
         </is>
       </c>
-      <c r="B98" s="2" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>*Este campo foi descontinuado. Para mais informações sobre a Belvo e descontinuação, consulte nossa explicação sobre Campos descontinuados.*
 Por favor, use `sender_tax_fraud_status` em vez disso.</t>
         </is>
       </c>
-      <c r="C98" s="2" t="inlineStr"/>
-      <c r="D98" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E98" s="2" t="inlineStr"/>
-      <c r="F98" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G98" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H98" s="2" t="inlineStr"/>
-      <c r="I98" s="2" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr"/>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr"/>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H122" s="2" t="inlineStr"/>
+      <c r="I122" s="2" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
         <is>
           <t>receiver_blacklist_status</t>
         </is>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>*Este campo foi descontinuado. Para mais informações sobre a Belvo e descontinuação, consulte nossa explicação sobre Campos descontinuados.*
 Por favor, use `receiver_tax_fraud_status` em vez disso.</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr"/>
-      <c r="D99" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E99" s="2" t="inlineStr"/>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H99" s="2" t="inlineStr"/>
-      <c r="I99" s="2" t="inlineStr"/>
+      <c r="C123" s="2" t="inlineStr"/>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr"/>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H123" s="2" t="inlineStr"/>
+      <c r="I123" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -47539,8 +48397,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>O nome da instituição, conforme designado pela Belvo.
-Consulte nosso artigo &lt;a href="https://developers.belvo.com/docs/institution" target="_blank"&gt;Instituições&lt;/a&gt; no DevPortal para uma lista detalhada de nomes de instituições.</t>
+          <t>O nome da instituição, conforme designado pela Belvo.</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -53150,8 +54007,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>O nome da instituição, conforme designado pela Belvo.
-Consulte nosso artigo &lt;a href="https://developers.belvo.com/docs/institution" target="_blank"&gt;Instituições&lt;/a&gt; no DevPortal para uma lista detalhada de nomes de instituições.</t>
+          <t>O nome da instituição, conforme designado pela Belvo.</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -60734,8 +61590,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>O nome da instituição, conforme designado pela Belvo.
-Consulte nosso artigo &lt;a href="https://developers.belvo.com/docs/institution" target="_blank"&gt;Instituições&lt;/a&gt; no DevPortal para uma lista detalhada de nomes de instituições.</t>
+          <t>O nome da instituição, conforme designado pela Belvo.</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">

--- a/data_dictionaries/pt-BR/Belvo_Data_Dictionary_pt-BR.xlsx
+++ b/data_dictionaries/pt-BR/Belvo_Data_Dictionary_pt-BR.xlsx
@@ -30096,7 +30096,7 @@
           <t>Indica se as credenciais devem ou não ser armazenadas (e a duração para a qual as credenciais serão armazenadas).
 - Para links recorrentes, isso é definido como `store` por padrão (e não pode ser alterado).
 - Para links únicos, isso é definido como `365d` por padrão.
-Escolha uma das opções:
+Pode ser:
   - `store` para armazenar credenciais (até que o link seja excluído)
   - `nostore` para não armazenar credenciais
   - Qualquer valor entre `1d` e `365d` para indicar o número de dias que você deseja que as credenciais sejam armazenadas.

--- a/data_dictionaries/pt-BR/Belvo_Data_Dictionary_pt-BR.xlsx
+++ b/data_dictionaries/pt-BR/Belvo_Data_Dictionary_pt-BR.xlsx
@@ -26584,7 +26584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26990,7 +26990,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>48572</t>
+          <t>48572.01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -27029,7 +27029,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21345</t>
+          <t>21345.01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -27068,7 +27068,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>154321</t>
+          <t>154321.01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -27107,7 +27107,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31789</t>
+          <t>31789.01</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -27146,7 +27146,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>12345.01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -27185,7 +27185,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -27224,7 +27224,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8976</t>
+          <t>8976.01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -27263,7 +27263,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>65432</t>
+          <t>65432.01</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -27302,7 +27302,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14321</t>
+          <t>14321.01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -27341,7 +27341,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>54321</t>
+          <t>54321.01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -27380,7 +27380,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>372480</t>
+          <t>372480.01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -27450,7 +27450,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1123456</t>
+          <t>1123456.01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -27479,17 +27479,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_assets.long_term_accounts_receivable</t>
+          <t>balance_sheet.non_current_assets.accumulated_depreciation_and_amortization</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>O valor devido pelos clientes por vendas feitas a crédito, esperado para ser recebido após um ano.</t>
+          <t>Depreciação e amortização acumuladas totais, representando a alocação cumulativa do custo dos ativos não circulantes ao longo do período em que se espera que eles proporcionem benefícios econômicos.</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>10987</t>
+          <t>123456.01</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -27518,17 +27518,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_assets.prepayment_to_suppliers</t>
+          <t>balance_sheet.non_current_assets.long_term_accounts_receivable</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>O valor pago antecipadamente a fornecedores por bens ou serviços a serem recebidos no futuro, esperado para ser utilizado a longo prazo.</t>
+          <t>O valor devido pelos clientes por vendas feitas a crédito, esperado para ser recebido após um ano.</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5432</t>
+          <t>10987.01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -27557,17 +27557,17 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_assets.goodwill</t>
+          <t>balance_sheet.non_current_assets.prepayment_to_suppliers</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>O valor dos ativos intangíveis que surgem da aquisição de outras empresas, representando o ágio pago sobre o valor justo dos ativos líquidos adquiridos.</t>
+          <t>O valor pago antecipadamente a fornecedores por bens ou serviços a serem recebidos no futuro, esperado para ser utilizado a longo prazo.</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>47654</t>
+          <t>5432.01</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -27596,17 +27596,17 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_assets.intangible_assets</t>
+          <t>balance_sheet.non_current_assets.goodwill</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>O valor total dos ativos intangíveis de propriedade da empresa, como patentes, marcas registradas e direitos autorais, com vidas úteis que se estendem além de um ano.</t>
+          <t>O valor dos ativos intangíveis que surgem da aquisição de outras empresas, representando o ágio pago sobre o valor justo dos ativos líquidos adquiridos.</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>47654.01</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -27635,17 +27635,17 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_assets.investments_in_associates</t>
+          <t>balance_sheet.non_current_assets.intangible_assets</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>O valor dos investimentos em outras empresas nas quais a companhia tem influência significativa, mas não controle, tipicamente representado pela posse de 20-50% das ações com direito a voto do associado.</t>
+          <t>O valor total dos ativos intangíveis de propriedade da empresa, como patentes, marcas registradas e direitos autorais, com vidas úteis que se estendem além de um ano.</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>65432</t>
+          <t>43210.01</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -27674,17 +27674,17 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_assets.long_term_financial_instruments</t>
+          <t>balance_sheet.non_current_assets.investments_in_associates</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>O valor dos instrumentos financeiros que se espera serem mantidos por mais de um ano, como títulos, debêntures e empréstimos de longo prazo.</t>
+          <t>O valor dos investimentos em outras empresas nas quais a companhia tem influência significativa, mas não controle, tipicamente representado pela posse de 20-50% das ações com direito a voto do associado.</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>32876</t>
+          <t>65432.01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -27713,17 +27713,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_assets.total</t>
+          <t>balance_sheet.non_current_assets.long_term_financial_instruments</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>A soma de todos os ativos não circulantes, representando o valor total dos ativos que se espera serem utilizados ou mantidos por mais de um ano.</t>
+          <t>O valor dos instrumentos financeiros que se espera serem mantidos por mais de um ano, como títulos, debêntures e empréstimos de longo prazo.</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1346647</t>
+          <t>32876.01</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -27752,29 +27752,37 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities</t>
+          <t>balance_sheet.non_current_assets.total</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Os passivos circulantes da empresa, que se espera serem liquidados dentro do ano em questão.</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr"/>
+          <t>A soma de todos os ativos não circulantes, representando o valor total dos ativos que se espera serem utilizados ou mantidos por mais de um ano.</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>1346647.01</t>
+        </is>
+      </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
@@ -27783,37 +27791,29 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.bank_loans</t>
+          <t>balance_sheet.current_liabilities</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>O valor total dos empréstimos contraídos de bancos ou instituições financeiras, com expectativa de serem pagos dentro de um ano.</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>49876</t>
-        </is>
-      </c>
+          <t>Os passivos circulantes da empresa, que se espera serem liquidados dentro do ano em questão.</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr"/>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr"/>
@@ -27822,17 +27822,17 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.accounts_payable</t>
+          <t>balance_sheet.current_liabilities.bank_loans</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>O valor devido aos fornecedores por bens ou serviços adquiridos a crédito, que se espera ser pago dentro de um curto período.</t>
+          <t>O valor total dos empréstimos contraídos de bancos ou instituições financeiras, com expectativa de serem pagos dentro de um ano.</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>103298</t>
+          <t>49876.01</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -27861,17 +27861,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.notes_payable</t>
+          <t>balance_sheet.current_liabilities.accounts_payable</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>O valor das notas promissórias escritas emitidas para fornecedores ou outros, prometendo pagar um valor especificado até uma determinada data.</t>
+          <t>O valor devido aos fornecedores por bens ou serviços adquiridos a crédito, que se espera ser pago dentro de um curto período.</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>25643</t>
+          <t>103298.01</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -27900,17 +27900,17 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.financial_instruments</t>
+          <t>balance_sheet.current_liabilities.notes_payable</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>O valor dos instrumentos financeiros que se espera serem liquidados em dinheiro dentro de um ano, como títulos, debêntures e empréstimos de curto prazo.</t>
+          <t>O valor das notas promissórias escritas emitidas para fornecedores ou outros, prometendo pagar um valor especificado até uma determinada data.</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>14321</t>
+          <t>25643.01</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -27939,17 +27939,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.other_creditors</t>
+          <t>balance_sheet.current_liabilities.financial_instruments</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Os valores totais devidos a vários outros credores, excluindo contas a pagar e notas promissórias.</t>
+          <t>O valor dos instrumentos financeiros que se espera serem liquidados em dinheiro dentro de um ano, como títulos, debêntures e empréstimos de curto prazo.</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>21987</t>
+          <t>14321.01</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
@@ -27978,17 +27978,17 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.income_tax_payable</t>
+          <t>balance_sheet.current_liabilities.other_creditors</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>O valor do imposto de renda devido às autoridades fiscais, que se espera ser pago em um curto período.</t>
+          <t>Os valores totais devidos a vários outros credores, excluindo contas a pagar e notas promissórias.</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>12765</t>
+          <t>21987.01</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -28017,17 +28017,17 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.customer_advances</t>
+          <t>balance_sheet.current_liabilities.income_tax_payable</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>O valor total recebido antecipadamente de clientes por bens ou serviços a serem entregues no futuro, esperado para ser utilizado dentro de um ano.</t>
+          <t>O valor do imposto de renda devido às autoridades fiscais, que se espera ser pago em um curto período.</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>18765</t>
+          <t>12765.01</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -28056,17 +28056,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.provisions</t>
+          <t>balance_sheet.current_liabilities.customer_advances</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>O valor estimado reservado para passivos ou perdas futuras, como garantias, reivindicações legais ou custos de reestruturação.</t>
+          <t>O valor total recebido antecipadamente de clientes por bens ou serviços a serem entregues no futuro, esperado para ser utilizado dentro de um ano.</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>10987</t>
+          <t>18765.01</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -28095,17 +28095,17 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.taxes_payable</t>
+          <t>balance_sheet.current_liabilities.provisions</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>O valor total de impostos devidos às autoridades fiscais, que se espera ser pago em um curto período.</t>
+          <t>O valor estimado reservado para passivos ou perdas futuras, como garantias, reivindicações legais ou custos de reestruturação.</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>5321</t>
+          <t>10987.01</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -28134,17 +28134,17 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.total</t>
+          <t>balance_sheet.current_liabilities.taxes_payable</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>A soma de todos os passivos circulantes, representando o valor total das obrigações que se espera serem liquidadas dentro de um ano.</t>
+          <t>O valor total de impostos devidos às autoridades fiscais, que se espera ser pago em um curto período.</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>260963</t>
+          <t>5321.01</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -28173,29 +28173,37 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities</t>
+          <t>balance_sheet.current_liabilities.total</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>As obrigações não circulantes da empresa, que são obrigações de longo prazo não exigíveis dentro do ano em questão.</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr"/>
+          <t>A soma de todos os passivos circulantes, representando o valor total das obrigações que se espera serem liquidadas dentro de um ano.</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>260963.01</t>
+        </is>
+      </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr"/>
@@ -28204,37 +28212,29 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.long_term_accounts_payable</t>
+          <t>balance_sheet.non_current_liabilities</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>O valor devido aos fornecedores por bens ou serviços adquiridos a crédito, com expectativa de pagamento após um ano.</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>30876</t>
-        </is>
-      </c>
+          <t>As obrigações não circulantes da empresa, que são obrigações de longo prazo não exigíveis dentro do ano em questão.</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr"/>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr"/>
@@ -28243,17 +28243,17 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.long_term_financial_instruments</t>
+          <t>balance_sheet.non_current_liabilities.long_term_accounts_payable</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>O valor dos instrumentos financeiros que se espera serem mantidos por mais de um ano, como títulos, debêntures e empréstimos de longo prazo.</t>
+          <t>O valor devido aos fornecedores por bens ou serviços adquiridos a crédito, com expectativa de pagamento após um ano.</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>42310</t>
+          <t>30876.01</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -28282,17 +28282,17 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.deferred_revenue</t>
+          <t>balance_sheet.non_current_liabilities.long_term_financial_instruments</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>O montante recebido antecipadamente de clientes por bens ou serviços a serem entregues no futuro, esperado para ser reconhecido como receita a longo prazo (como aluguel).</t>
+          <t>O valor dos instrumentos financeiros que se espera serem mantidos por mais de um ano, como títulos, debêntures e empréstimos de longo prazo.</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>21987</t>
+          <t>42310.01</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
@@ -28321,17 +28321,17 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.contributions_for_future_capital_increases</t>
+          <t>balance_sheet.non_current_liabilities.deferred_revenue</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>As contribuições totais recebidas de acionistas ou outros investidores para futuros aumentos de capital, que se espera serem utilizadas a longo prazo.</t>
+          <t>O montante recebido antecipadamente de clientes por bens ou serviços a serem entregues no futuro, esperado para ser reconhecido como receita a longo prazo (como aluguel).</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>10987</t>
+          <t>21987.01</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -28360,17 +28360,17 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.deferred_income_tax</t>
+          <t>balance_sheet.non_current_liabilities.contributions_for_future_capital_increases</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>O valor do imposto de renda que é diferido para períodos futuros, esperado para ser pago após um ano.</t>
+          <t>As contribuições totais recebidas de acionistas ou outros investidores para futuros aumentos de capital, que se espera serem utilizadas a longo prazo.</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>26543</t>
+          <t>10987.01</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
@@ -28399,17 +28399,17 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.employee_benefits</t>
+          <t>balance_sheet.non_current_liabilities.deferred_income_tax</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>O valor total dos benefícios devidos aos empregados, como pensões, gratificações e outros benefícios pós-emprego, que se espera serem liquidados a longo prazo.</t>
+          <t>O valor do imposto de renda que é diferido para períodos futuros, esperado para ser pago após um ano.</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>30218</t>
+          <t>26543.01</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -28438,17 +28438,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.long_term_provisions</t>
+          <t>balance_sheet.non_current_liabilities.employee_benefits</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>O valor estimado reservado para passivos ou perdas futuras, como garantias, reivindicações legais ou custos de reestruturação, que se espera serem liquidados após um ano.</t>
+          <t>O valor total dos benefícios devidos aos empregados, como pensões, gratificações e outros benefícios pós-emprego, que se espera serem liquidados a longo prazo.</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>15432</t>
+          <t>30218.01</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
@@ -28477,17 +28477,17 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.total</t>
+          <t>balance_sheet.non_current_liabilities.long_term_provisions</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>A soma de todos os passivos não circulantes, representando o valor total das obrigações que se espera serem liquidadas após um ano.</t>
+          <t>O valor estimado reservado para passivos ou perdas futuras, como garantias, reivindicações legais ou custos de reestruturação, que se espera serem liquidados após um ano.</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>178353</t>
+          <t>15432.01</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
@@ -28516,29 +28516,37 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.equity</t>
+          <t>balance_sheet.non_current_liabilities.total</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>O patrimônio líquido da empresa, representando o interesse residual nos ativos após a dedução dos passivos.</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr"/>
+          <t>A soma de todos os passivos não circulantes, representando o valor total das obrigações que se espera serem liquidadas após um ano.</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>178353.01</t>
+        </is>
+      </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr"/>
@@ -28547,37 +28555,29 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.equity.stockholders_equity</t>
+          <t>balance_sheet.equity</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>O valor total das ações emitidas pela empresa, representando o interesse de propriedade dos acionistas no negócio.</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>501234</t>
-        </is>
-      </c>
+          <t>O patrimônio líquido da empresa, representando o interesse residual nos ativos após a dedução dos passivos.</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr"/>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -28586,17 +28586,17 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.equity.retained_earnings</t>
+          <t>balance_sheet.equity.stockholders_equity</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Os lucros ou prejuízos acumulados da empresa que não foram distribuídos aos acionistas como dividendos.</t>
+          <t>O valor total das ações emitidas pela empresa, representando o interesse de propriedade dos acionistas no negócio.</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>202345</t>
+          <t>501234.01</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
@@ -28625,17 +28625,17 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.equity.other_comprehensive_income</t>
+          <t>balance_sheet.equity.future_capital_contributions</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Os ganhos ou perdas que não estão incluídos no lucro líquido, mas são reportados diretamente no patrimônio, como ganhos não realizados em investimentos ou ajustes de tradução de moeda estrangeira.</t>
+          <t>Os fundos recebidos dos acionistas que são especificamente designados para futuros aumentos de capital ou investimentos.</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>10987</t>
+          <t>75000.01</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
@@ -28664,17 +28664,17 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.equity.controlling_interest</t>
+          <t>balance_sheet.equity.legal_reserve</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>O interesse de propriedade na empresa detido pela entidade controladora ou pelos acionistas majoritários, representando a participação controladora no negócio.</t>
+          <t>A reserva legal exigida por lei, geralmente separada dos lucros, para fornecer proteção financeira contra perdas ou obrigações futuras.</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>70876</t>
+          <t>25000.01</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
@@ -28703,17 +28703,17 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.equity.non_controlling_interest</t>
+          <t>balance_sheet.equity.capital_update_excess</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>O interesse de propriedade na empresa detido por acionistas minoritários, representando a participação não controladora no negócio.</t>
+          <t>O excedente resultante de ajustes feitos no capital próprio, frequentemente devido à inflação ou à reavaliação de ativos.</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>50321</t>
+          <t>15000.01</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
@@ -28742,17 +28742,17 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.equity.total</t>
+          <t>balance_sheet.equity.capital_update_insufficiency</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>A soma do capital social, lucros retidos, outros resultados abrangentes, participação controladora e participação não controladora, representando o patrimônio total da empresa.</t>
+          <t>O déficit resultante de ajustes feitos no capital próprio, muitas vezes devido à inflação ou à reavaliação de ativos.</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>836763</t>
+          <t>-5000.01</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -28781,21 +28781,29 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>income_statement</t>
+          <t>balance_sheet.equity.capital_reserve</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>A demonstração de resultados detalhando as receitas, despesas e lucros da empresa para o ano em questão.</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr"/>
+          <t>A reserva de capital derivada de atividades não operacionais, como ganhos de reavaliações de ativos ou certas transações de capital.</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>10000.01</t>
+        </is>
+      </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -28803,7 +28811,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
@@ -28812,289 +28820,285 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
+          <t>balance_sheet.equity.share_premium_on_stock_sales</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>O valor excedente recebido por uma empresa quando as ações são emitidas a um preço acima do seu valor nominal (par).</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>50000.01</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>balance_sheet.equity.retained_earnings</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Os lucros ou prejuízos acumulados da empresa que não foram distribuídos aos acionistas como dividendos.</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>202345.01</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>balance_sheet.equity.other_comprehensive_income</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Os ganhos ou perdas que não estão incluídos no lucro líquido, mas são reportados diretamente no patrimônio, como ganhos não realizados em investimentos ou ajustes de tradução de moeda estrangeira.</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>10987.01</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>balance_sheet.equity.controlling_interest</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>O interesse de propriedade na empresa detido pela entidade controladora ou pelos acionistas majoritários, representando a participação controladora no negócio.</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>70876.01</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>balance_sheet.equity.non_controlling_interest</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>O interesse de propriedade na empresa detido por acionistas minoritários, representando a participação não controladora no negócio.</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>50321.01</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>balance_sheet.equity.total</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>A soma do capital social, lucros retidos, outros resultados abrangentes, participação controladora e participação não controladora, representando o patrimônio total da empresa.</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>836763.01</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>income_statement</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>A demonstração de resultados detalhando as receitas, despesas e lucros da empresa para o ano em questão.</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
           <t>income_statement.net_revenue</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>A receita total gerada pela empresa a partir de suas operações principais, excluindo quaisquer deduções para descontos, devoluções ou abatimentos.
 &gt; **Nota**: `domestic_sales` + `foreign_sales` não somarão o `net_revenue` devido à exclusão de descontos, devoluções e abatimentos.</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>1212345</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>income_statement.domestic_sales</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>A receita gerada pela empresa a partir da venda de bens ou serviços dentro de seu país de origem.</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>1123456</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>income_statement.foreign_sales</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>A receita gerada pela empresa com a venda de bens ou serviços em países estrangeiros.</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>88987</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>income_statement.materials_used</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>O custo total dos materiais utilizados ou comercializados pela empresa durante o período de relatório.</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>609876</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>income_statement.cost_of_goods_sold</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>O custo total incorrido pela empresa para produzir ou adquirir os bens vendidos durante o período de relatório.</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>412345</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>income_statement.cost_of_services_sold</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>O custo total incorrido pela empresa para fornecer os serviços vendidos durante o período de relatório.</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>101234</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>income_statement.gross_profit</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>A diferença entre a receita líquida e o custo total dos bens e serviços vendidos, representando o lucro obtido com as operações principais do negócio antes de deduzir as despesas operacionais.</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>190890</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>income_statement.gross_loss</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>A diferença negativa entre a receita líquida e o custo total dos bens e serviços vendidos, representando a perda incorrida nas operações principais do negócio antes de deduzir as despesas operacionais.</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr"/>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>1212345.01</t>
+        </is>
+      </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
           <t>number</t>
@@ -29121,17 +29125,17 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>income_statement.operating_expenses</t>
+          <t>income_statement.domestic_sales</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>As despesas totais incorridas pela empresa em suas atividades operacionais normais, incluindo despesas de vendas, gerais e administrativas.</t>
+          <t>A receita gerada pela empresa a partir da venda de bens ou serviços dentro de seu país de origem.</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>122345</t>
+          <t>1123456.01</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
@@ -29160,17 +29164,17 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>income_statement.operating_income</t>
+          <t>income_statement.foreign_sales</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>O lucro obtido das operações principais do negócio após a dedução das despesas operacionais, mas antes de considerar juros, impostos e outros itens não operacionais.</t>
+          <t>A receita gerada pela empresa com a venda de bens ou serviços em países estrangeiros.</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>68545</t>
+          <t>88987.01</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
@@ -29199,15 +29203,19 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>income_statement.operating_loss</t>
+          <t>income_statement.materials_used</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>O prejuízo incorrido nas operações principais do negócio após deduzir as despesas operacionais, mas antes de considerar juros, impostos e outros itens não operacionais.</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr"/>
+          <t>O custo total dos materiais utilizados ou comercializados pela empresa durante o período de relatório.</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>609876.01</t>
+        </is>
+      </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
           <t>number</t>
@@ -29234,17 +29242,17 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>income_statement.financial_result</t>
+          <t>income_statement.cost_of_goods_sold</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>O resultado líquido das atividades financeiras, incluindo receita de juros, despesa de juros e outros ganhos ou perdas financeiras.</t>
+          <t>O custo total incorrido pela empresa para produzir ou adquirir os bens vendidos durante o período de relatório.</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>15098</t>
+          <t>412345.01</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
@@ -29273,17 +29281,17 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>income_statement.equity_in_earnings_of_affiliates</t>
+          <t>income_statement.cost_of_services_sold</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>A participação da empresa no lucro ou prejuízo de suas associadas, entidades sobre as quais ela tem influência significativa, mas não controle.</t>
+          <t>O custo total incorrido pela empresa para fornecer os serviços vendidos durante o período de relatório.</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>5678</t>
+          <t>101234.01</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
@@ -29312,17 +29320,17 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>income_statement.income_before_taxes</t>
+          <t>income_statement.gross_profit</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>O lucro obtido antes de contabilizar as despesas com imposto de renda.</t>
+          <t>A diferença entre a receita líquida e o custo total dos bens e serviços vendidos, representando o lucro obtido com as operações principais do negócio antes de deduzir as despesas operacionais.</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>89321</t>
+          <t>190890.01</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
@@ -29351,12 +29359,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>income_statement.loss_before_taxes</t>
+          <t>income_statement.gross_loss</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>O prejuízo incorrido antes de contabilizar as despesas com imposto de renda.</t>
+          <t>A diferença negativa entre a receita líquida e o custo total dos bens e serviços vendidos, representando a perda incorrida nas operações principais do negócio antes de deduzir as despesas operacionais.</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr"/>
@@ -29386,17 +29394,17 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>income_statement.income_taxes</t>
+          <t>income_statement.operating_expenses</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>O valor total das despesas com imposto de renda incorridas durante o período de relatório.</t>
+          <t>As despesas totais incorridas pela empresa em suas atividades operacionais normais, incluindo despesas de vendas, gerais e administrativas.</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>20123</t>
+          <t>122345.01</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
@@ -29425,17 +29433,17 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>income_statement.income_from_continuing_operations</t>
+          <t>income_statement.operating_income</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>O lucro obtido das operações comerciais contínuas da empresa após a dedução das despesas operacionais e impostos.</t>
+          <t>O lucro obtido das operações principais do negócio após a dedução das despesas operacionais, mas antes de considerar juros, impostos e outros itens não operacionais.</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>69198</t>
+          <t>68545.01</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
@@ -29464,12 +29472,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>income_statement.loss_from_continuing_operations</t>
+          <t>income_statement.operating_loss</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>O prejuízo incorrido pelas operações comerciais contínuas da empresa após a dedução das despesas operacionais e impostos.</t>
+          <t>O prejuízo incorrido nas operações principais do negócio após deduzir as despesas operacionais, mas antes de considerar juros, impostos e outros itens não operacionais.</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr"/>
@@ -29499,17 +29507,17 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>income_statement.discontinued_operations</t>
+          <t>income_statement.financial_result</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>O resultado líquido das operações que foram descontinuadas ou vendidas durante o período de relatório.</t>
+          <t>O resultado líquido das atividades financeiras, incluindo receita de juros, despesa de juros e outros ganhos ou perdas financeiras.</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15098.01</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
@@ -29538,17 +29546,17 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>income_statement.net_income</t>
+          <t>income_statement.income_statement_financial_gains</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>O lucro total obtido pela empresa após deduzir todas as despesas, incluindo operacionais, não operacionais, juros e impostos.</t>
+          <t>A receita financeira total positiva, incluindo receita de juros, ganhos cambiais e outros ganhos de atividades de financiamento. Este valor deve ser sempre positivo.</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>69198</t>
+          <t>85000.01</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -29577,15 +29585,19 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>income_statement.net_loss</t>
+          <t>income_statement.income_statement_financial_costs</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>O prejuízo total incorrido pela empresa após deduzir todas as despesas, incluindo operacionais, não operacionais, juros e impostos.</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr"/>
+          <t>As despesas financeiras totais, incluindo despesas com juros, perdas cambiais e outros custos incorridos em atividades de financiamento. Este valor deve ser sempre negativo.</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>-32000.01</t>
+        </is>
+      </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
           <t>number</t>
@@ -29608,6 +29620,345 @@
       </c>
       <c r="H79" s="2" t="inlineStr"/>
       <c r="I79" s="2" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.equity_in_earnings_of_affiliates</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>A participação da empresa no lucro ou prejuízo de suas associadas, entidades sobre as quais ela tem influência significativa, mas não controle.</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>5678.01</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.income_before_taxes</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>O lucro obtido antes de contabilizar as despesas com imposto de renda.</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>89321.01</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.loss_before_taxes</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>O prejuízo incorrido antes de contabilizar as despesas com imposto de renda.</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.income_taxes</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>O valor total das despesas com imposto de renda incorridas durante o período de relatório.</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>20123.01</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.income_from_continuing_operations</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>O lucro obtido das operações comerciais contínuas da empresa após a dedução das despesas operacionais e impostos.</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>69198.01</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="inlineStr"/>
+      <c r="I84" s="2" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.loss_from_continuing_operations</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>O prejuízo incorrido pelas operações comerciais contínuas da empresa após a dedução das despesas operacionais e impostos.</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr"/>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="inlineStr"/>
+      <c r="I85" s="2" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.discontinued_operations</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>O resultado líquido das operações que foram descontinuadas ou vendidas durante o período de relatório.</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr"/>
+      <c r="I86" s="2" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.net_income</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>O lucro total obtido pela empresa após deduzir todas as despesas, incluindo operacionais, não operacionais, juros e impostos.</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>69198.01</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr"/>
+      <c r="I87" s="2" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.net_loss</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>O prejuízo total incorrido pela empresa após deduzir todas as despesas, incluindo operacionais, não operacionais, juros e impostos.</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr"/>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr"/>
+      <c r="I88" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30096,7 +30447,7 @@
           <t>Indica se as credenciais devem ou não ser armazenadas (e a duração para a qual as credenciais serão armazenadas).
 - Para links recorrentes, isso é definido como `store` por padrão (e não pode ser alterado).
 - Para links únicos, isso é definido como `365d` por padrão.
-Escolha uma das opções:
+Pode ser:
   - `store` para armazenar credenciais (até que o link seja excluído)
   - `nostore` para não armazenar credenciais
   - Qualquer valor entre `1d` e `365d` para indicar o número de dias que você deseja que as credenciais sejam armazenadas.

--- a/data_dictionaries/pt-BR/Belvo_Data_Dictionary_pt-BR.xlsx
+++ b/data_dictionaries/pt-BR/Belvo_Data_Dictionary_pt-BR.xlsx
@@ -11121,12 +11121,14 @@
 Retornamos um dos seguintes valores:
   - `REGULAR`
   - `THIRTEENTH`
+  - `VOLUNTARY`
+  - `RETIREMENT`
   - `null`</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>VOLUNTARY</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -11147,7 +11149,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>REGULAR, THIRTEENTH, None</t>
+          <t>REGULAR, THIRTEENTH, VOLUNTARY, RETIREMENT, None</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr"/>
